--- a/Data/Output/Extract_IACETData.xlsx
+++ b/Data/Output/Extract_IACETData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\IACETProject\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A44B60-381B-4772-B632-76EBF46B5E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4750DA8-FE25-48BC-9348-87EEFCF6938A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -751,10 +751,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O16"/>
+  <x:dimension ref="A1:O1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="G5" sqref="G5 G5:G5"/>
+      <x:selection activeCell="I5" sqref="I5 I5:I5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +815,7 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:15">
       <x:c r="A2" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -857,7 +857,7 @@
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:15">
       <x:c r="A3" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
@@ -899,7 +899,7 @@
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:15">
       <x:c r="A4" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -941,7 +941,7 @@
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:15">
       <x:c r="A5" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
@@ -983,7 +983,7 @@
         <x:v>61</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="6" spans="1:15">
       <x:c r="A6" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
@@ -1025,7 +1025,7 @@
         <x:v>73</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="7" spans="1:15">
       <x:c r="A7" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
@@ -1067,7 +1067,7 @@
         <x:v>73</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="8" spans="1:15">
       <x:c r="A8" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
@@ -1109,7 +1109,7 @@
         <x:v>73</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="9" spans="1:15">
       <x:c r="A9" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
@@ -1151,7 +1151,7 @@
         <x:v>73</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="10" spans="1:15">
       <x:c r="A10" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
@@ -1193,7 +1193,7 @@
         <x:v>73</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="11" spans="1:15">
       <x:c r="A11" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
@@ -1235,7 +1235,7 @@
         <x:v>73</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="12" spans="1:15">
       <x:c r="A12" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
@@ -1277,7 +1277,7 @@
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="13" spans="1:15">
       <x:c r="A13" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
@@ -1319,7 +1319,7 @@
         <x:v>73</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="14" spans="1:15">
       <x:c r="A14" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
@@ -1361,7 +1361,7 @@
         <x:v>61</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="15" spans="1:15">
       <x:c r="A15" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
@@ -1403,7 +1403,7 @@
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="16" spans="1:15">
       <x:c r="A16" s="2" t="s">
         <x:v>117</x:v>
       </x:c>
